--- a/client/template/MESIN_AKTIF.xlsx
+++ b/client/template/MESIN_AKTIF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\client\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA61A991-6586-49F7-A2DA-473050068416}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F257013-F508-4B9E-887F-DA649C5C9CA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,13 +83,13 @@
     <t>PRODUK</t>
   </si>
   <si>
-    <t>[rec.product_name]</t>
-  </si>
-  <si>
     <t>[rec.duration_dt]</t>
   </si>
   <si>
     <t>WAKTU DOWNTIME (s)</t>
+  </si>
+  <si>
+    <t>[rec.nama_produk]</t>
   </si>
 </sst>
 </file>
@@ -1799,7 +1799,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1875,7 +1875,7 @@
         <v>16</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" s="22" t="s">
         <v>17</v>
@@ -1906,7 +1906,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>8</v>
@@ -1918,7 +1918,7 @@
         <v>14</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" s="27" t="s">
         <v>15</v>
